--- a/data/supply_side_data_Exp.xlsx
+++ b/data/supply_side_data_Exp.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chriska\Documents\01_modeling\Programming Sandbox\xpress\PMM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hans\Documents\gittest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="generator_profile">GeneratorProfiles!$A$1:$C$32</definedName>
     <definedName name="power_plant_data">GeneratorData!$A$1:$U$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -458,10 +458,10 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:N1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -739,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -757,11 +757,11 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>37.920000000000009</v>
+        <v>25.28</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>0.33660000000000001</v>
+        <v>0.22440000000000002</v>
       </c>
       <c r="K6">
         <v>731250</v>
@@ -993,7 +993,7 @@
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1151,7 +1151,7 @@
       <selection sqref="A1:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
